--- a/results/gurobi_cplex_comparison/seed_20_k_25.xlsx
+++ b/results/gurobi_cplex_comparison/seed_20_k_25.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F2">
-        <v>0.026</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.015</v>
+        <v>0.981</v>
       </c>
       <c r="F3">
-        <v>0.035</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.025</v>
+        <v>1.345</v>
       </c>
       <c r="F4">
-        <v>0.045</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04</v>
+        <v>1.765</v>
       </c>
       <c r="F5">
-        <v>0.059</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.056</v>
+        <v>2.278</v>
       </c>
       <c r="F6">
-        <v>0.05</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.053</v>
+        <v>2.767</v>
       </c>
       <c r="F7">
-        <v>0.078</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.022</v>
+        <v>3.32</v>
       </c>
       <c r="F8">
-        <v>0.058</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07199999999999999</v>
+        <v>4.021</v>
       </c>
       <c r="F9">
-        <v>0.175</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.018</v>
+        <v>4.623</v>
       </c>
       <c r="F10">
-        <v>0.049</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.026</v>
+        <v>5.406</v>
       </c>
       <c r="F11">
-        <v>0.063</v>
+        <v>1.117</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.042</v>
+        <v>6.135</v>
       </c>
       <c r="F12">
-        <v>86.919</v>
+        <v>93.221</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.164</v>
+        <v>7.148</v>
       </c>
       <c r="F13">
-        <v>75.181</v>
+        <v>136.768</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.098</v>
+        <v>7.946</v>
       </c>
       <c r="F14">
-        <v>38.595</v>
+        <v>87.426</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.114</v>
+        <v>8.952999999999999</v>
       </c>
       <c r="F15">
-        <v>88.23699999999999</v>
+        <v>122.923</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.131</v>
+        <v>9.993</v>
       </c>
       <c r="F16">
-        <v>48.446</v>
+        <v>114.962</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.115</v>
+        <v>11.171</v>
       </c>
       <c r="F17">
-        <v>73.044</v>
+        <v>99.393</v>
       </c>
     </row>
   </sheetData>
